--- a/Excel/New Data File.xlsx
+++ b/Excel/New Data File.xlsx
@@ -1,103 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
-  </bookViews>
   <sheets>
     <sheet name="New Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
-  <si>
-    <t>OrderDate</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Rep</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>UnitCost</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Pencil</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>Kivell</t>
-  </si>
-  <si>
-    <t>Binder</t>
-  </si>
-  <si>
-    <t>Jardine</t>
-  </si>
-  <si>
-    <t>Gill</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Sorvino</t>
-  </si>
-  <si>
-    <t>Andrews</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Desk</t>
-  </si>
-  <si>
-    <t>Pen Set</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -463,50 +380,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>OrderDate</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Region</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rep</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Item</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Units</v>
+      </c>
+      <c r="F1" t="str">
+        <v>UnitCost</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>43106</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="B2" t="str">
+        <v>East</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E2">
         <v>95</v>
@@ -518,41 +429,41 @@
         <v>189.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3">
       <c r="A3" s="1">
         <v>43123</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="B3" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Kivell</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Binder</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G3">
-        <v>999.49999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+        <v>999.4999999999999</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>43140</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="B4" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Jardine</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E4">
         <v>36</v>
@@ -564,41 +475,41 @@
         <v>179.64000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5">
       <c r="A5" s="1">
         <v>43157</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="B5" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Gill</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Pen</v>
       </c>
       <c r="E5">
         <v>27</v>
       </c>
       <c r="F5">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G5">
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6">
       <c r="A6" s="1">
         <v>43174</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="B6" t="str">
+        <v>West</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Sorvino</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E6">
         <v>56</v>
@@ -610,18 +521,18 @@
         <v>167.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7">
       <c r="A7" s="1">
         <v>43191</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="B7" t="str">
+        <v>East</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Binder</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -633,18 +544,18 @@
         <v>299.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8">
       <c r="A8" s="1">
         <v>43208</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="B8" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Andrews</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E8">
         <v>75</v>
@@ -656,18 +567,18 @@
         <v>149.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9">
       <c r="A9" s="1">
         <v>43225</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="B9" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Jardine</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E9">
         <v>90</v>
@@ -679,18 +590,18 @@
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10">
       <c r="A10" s="1">
         <v>43242</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+      <c r="B10" t="str">
+        <v>West</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Thompson</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E10">
         <v>32</v>
@@ -702,18 +613,18 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11">
       <c r="A11" s="1">
         <v>43259</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
+      <c r="B11" t="str">
+        <v>East</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Binder</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -725,18 +636,18 @@
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12">
       <c r="A12" s="1">
         <v>43276</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+      <c r="B12" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Morgan</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E12">
         <v>90</v>
@@ -748,18 +659,18 @@
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13">
       <c r="A13" s="1">
         <v>43293</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
+      <c r="B13" t="str">
+        <v>East</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Binder</v>
       </c>
       <c r="E13">
         <v>29</v>
@@ -771,41 +682,41 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14">
       <c r="A14" s="1">
         <v>43310</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
+      <c r="B14" t="str">
+        <v>East</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Parent</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Binder</v>
       </c>
       <c r="E14">
         <v>81</v>
       </c>
       <c r="F14">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G14">
         <v>1619.1899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15">
       <c r="A15" s="1">
         <v>43327</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+      <c r="B15" t="str">
+        <v>East</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E15">
         <v>35</v>
@@ -817,18 +728,18 @@
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16">
       <c r="A16" s="1">
         <v>43344</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
+      <c r="B16" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Smith</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Desk</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -840,18 +751,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17">
       <c r="A17" s="1">
         <v>43361</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
+      <c r="B17" t="str">
+        <v>East</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -863,18 +774,18 @@
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18">
       <c r="A18" s="1">
         <v>43378</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
+      <c r="B18" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Morgan</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Binder</v>
       </c>
       <c r="E18">
         <v>28</v>
@@ -886,18 +797,18 @@
         <v>251.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19">
       <c r="A19" s="1">
         <v>43395</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+      <c r="B19" t="str">
+        <v>East</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Pen</v>
       </c>
       <c r="E19">
         <v>64</v>
@@ -909,41 +820,41 @@
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20">
       <c r="A20" s="1">
         <v>43412</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
+      <c r="B20" t="str">
+        <v>East</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Parent</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Pen</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G20">
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21">
       <c r="A21" s="1">
         <v>43429</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
+      <c r="B21" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Kivell</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E21">
         <v>96</v>
@@ -955,18 +866,18 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22">
       <c r="A22" s="1">
         <v>43446</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+      <c r="B22" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Smith</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E22">
         <v>67</v>
@@ -978,18 +889,18 @@
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23">
       <c r="A23" s="1">
         <v>43463</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
+      <c r="B23" t="str">
+        <v>East</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Parent</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E23">
         <v>74</v>
@@ -1001,18 +912,18 @@
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24">
       <c r="A24" s="1">
         <v>43480</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
+      <c r="B24" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Gill</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Binder</v>
       </c>
       <c r="E24">
         <v>46</v>
@@ -1024,18 +935,18 @@
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25">
       <c r="A25" s="1">
         <v>43497</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
+      <c r="B25" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Smith</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Binder</v>
       </c>
       <c r="E25">
         <v>87</v>
@@ -1047,18 +958,18 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26">
       <c r="A26" s="1">
         <v>43514</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
+      <c r="B26" t="str">
+        <v>East</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Binder</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1070,41 +981,41 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27">
       <c r="A27" s="1">
         <v>43531</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
+      <c r="B27" t="str">
+        <v>West</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Sorvino</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Binder</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
       <c r="F27">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G27">
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28">
       <c r="A28" s="1">
         <v>43548</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
+      <c r="B28" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Jardine</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -1116,18 +1027,18 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29">
       <c r="A29" s="1">
         <v>43565</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+      <c r="B29" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Andrews</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E29">
         <v>66</v>
@@ -1139,18 +1050,18 @@
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30">
       <c r="A30" s="1">
         <v>43582</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
+      <c r="B30" t="str">
+        <v>East</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Pen</v>
       </c>
       <c r="E30">
         <v>96</v>
@@ -1162,18 +1073,18 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31">
       <c r="A31" s="1">
         <v>43599</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+      <c r="B31" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Gill</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E31">
         <v>53</v>
@@ -1185,18 +1096,18 @@
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32">
       <c r="A32" s="1">
         <v>43616</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
+      <c r="B32" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Gill</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Binder</v>
       </c>
       <c r="E32">
         <v>80</v>
@@ -1208,18 +1119,18 @@
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33">
       <c r="A33" s="1">
         <v>43633</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
+      <c r="B33" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Kivell</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Desk</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -1231,18 +1142,18 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34">
       <c r="A34" s="1">
         <v>43650</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
+      <c r="B34" t="str">
+        <v>East</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E34">
         <v>62</v>
@@ -1254,18 +1165,18 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35">
       <c r="A35" s="1">
         <v>43667</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
+      <c r="B35" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Morgan</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E35">
         <v>55</v>
@@ -1277,18 +1188,18 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36">
       <c r="A36" s="1">
         <v>43684</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
+      <c r="B36" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Kivell</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Pen Set</v>
       </c>
       <c r="E36">
         <v>42</v>
@@ -1300,18 +1211,18 @@
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37">
       <c r="A37" s="1">
         <v>43701</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
+      <c r="B37" t="str">
+        <v>West</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Sorvino</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Desk</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1323,18 +1234,18 @@
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38">
       <c r="A38" s="1">
         <v>43718</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+      <c r="B38" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Gill</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -1343,21 +1254,21 @@
         <v>1.29</v>
       </c>
       <c r="G38">
-        <v>9.0300000000000011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75">
+        <v>9.030000000000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1">
         <v>43735</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
+      <c r="B39" t="str">
+        <v>West</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Sorvino</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Pen</v>
       </c>
       <c r="E39">
         <v>76</v>
@@ -1369,41 +1280,41 @@
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40">
       <c r="A40" s="1">
         <v>43752</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
+      <c r="B40" t="str">
+        <v>West</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Thompson</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Binder</v>
       </c>
       <c r="E40">
         <v>57</v>
       </c>
       <c r="F40">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G40">
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41">
       <c r="A41" s="1">
         <v>43769</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+      <c r="B41" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Andrews</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Pencil</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -1415,18 +1326,18 @@
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42">
       <c r="A42" s="1">
         <v>43786</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
+      <c r="B42" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Jardine</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Binder</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -1438,41 +1349,41 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43">
       <c r="A43" s="1">
         <v>43803</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
+      <c r="B43" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Jardine</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Binder</v>
       </c>
       <c r="E43">
         <v>94</v>
       </c>
       <c r="F43">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="G43">
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44">
       <c r="A44" s="1">
         <v>43820</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
+      <c r="B44" t="str">
+        <v>Central</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Andrews</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Binder</v>
       </c>
       <c r="E44">
         <v>28</v>
@@ -1485,9 +1396,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G44" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G44"/>
   </ignoredErrors>
 </worksheet>
 </file>